--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>511893.9578895544</v>
+        <v>577794.7418746961</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298024</v>
+        <v>406463.2981009823</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958494</v>
+        <v>11783336.69528065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8012227.522762826</v>
+        <v>7991125.632909914</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>25.61481576064551</v>
+        <v>92.15308612800283</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>9.737236172019017</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>85.83512306370307</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>38.76389937600347</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>219.2415180796681</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>88.08981957539278</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207131</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9058271976456</v>
+        <v>164.0808715982806</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>26.51572092966557</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>48.39989579700906</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>18.58626002491632</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393318</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.1395024779417</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.870233340514266</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.27434132826714</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772186</v>
+        <v>38.09558154325011</v>
       </c>
       <c r="T15" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9058271976456</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1988625129318</v>
+        <v>101.6709907026108</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>176.7240316206682</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>175.6758157097252</v>
+        <v>199.8692462101361</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S18" t="n">
-        <v>161.6448423772186</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9058271976456</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>123.3370254398353</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.89896514109057</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1988625129318</v>
+        <v>9.2208465873763</v>
       </c>
       <c r="I19" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>88.85648991415555</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379247</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>207.3271909179075</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,22 +2165,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8030829366063</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9863995095175</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>169.8374283471757</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>254.6342867674941</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>273.0469419507083</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>283.4390237273824</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>70.80276983270105</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>186.368423523651</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>42.61789643688657</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>122.3623168480191</v>
+        <v>206.1608002224376</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>113.2788623889627</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>147.3980409202128</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>64.99586874835479</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>80.9734750049406</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>376.184863643924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>296.7650756691941</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>150.5540262346244</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>64.99586874835479</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>105.6875942894367</v>
       </c>
       <c r="U35" t="n">
-        <v>126.7796941190797</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.30725745073089</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>85.45467285294879</v>
       </c>
       <c r="G38" t="n">
-        <v>304.9007418992414</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3663,28 +3663,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>60.38235645081242</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>23.05331571552195</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>39.80765344113787</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>356.0499371767993</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>50.43151777216859</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>49.92693022021933</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4036,16 +4036,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>123.0607915108175</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>65.13835619566962</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>84.84244993117463</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>101.7177065691261</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.38115216564972</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.38115216564972</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="4">
@@ -4521,13 +4521,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F5" t="n">
-        <v>315.6850394389064</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G5" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>310.6614854603483</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="C6" t="n">
-        <v>136.2084561792213</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="D6" t="n">
-        <v>136.2084561792213</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="E6" t="n">
-        <v>136.2084561792213</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="F6" t="n">
-        <v>136.2084561792213</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2084561792213</v>
+        <v>112.3650684920338</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>761.8705608694022</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W6" t="n">
-        <v>518.4217842253022</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X6" t="n">
-        <v>518.4217842253022</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y6" t="n">
-        <v>310.6614854603483</v>
+        <v>425.5489231905453</v>
       </c>
     </row>
     <row r="7">
@@ -4755,7 +4755,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G8" t="n">
-        <v>241.7186438601369</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>485.167420504237</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>485.167420504237</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>485.167420504237</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>307.1033079837604</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6502787026334</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D9" t="n">
-        <v>132.6502787026334</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6502787026334</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>722.7151069542472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>722.7151069542472</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>722.7151069542472</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X9" t="n">
-        <v>514.8636067487143</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y9" t="n">
-        <v>307.1033079837604</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1204.106214318017</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C11" t="n">
-        <v>1204.106214318017</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D11" t="n">
-        <v>1204.106214318017</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.106214318017</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F11" t="n">
-        <v>793.1203095284093</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G11" t="n">
-        <v>374.642865954865</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600106</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600106</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856228</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953289</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803417</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.883192613822</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300945</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170709</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755288</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.393835800053</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>2109.393835800053</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>2109.393835800053</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>2109.393835800053</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.393835800053</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>1778.330948456482</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>1425.562293186368</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>1204.106214318017</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y11" t="n">
-        <v>1204.106214318017</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>377.4493816410159</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="C12" t="n">
-        <v>377.4493816410159</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="D12" t="n">
-        <v>377.4493816410159</v>
+        <v>327.864534074759</v>
       </c>
       <c r="E12" t="n">
-        <v>288.4697659082959</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F12" t="n">
-        <v>288.4697659082959</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G12" t="n">
-        <v>150.2848336490976</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600106</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600106</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147177</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>162.8271385329684</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9597813494099</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M12" t="n">
-        <v>964.8594711344656</v>
+        <v>679.042797994484</v>
       </c>
       <c r="N12" t="n">
-        <v>1448.532482523724</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O12" t="n">
-        <v>1824.583116501094</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.393835800053</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.393835800053</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>2042.117567525234</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1878.839948962387</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>1678.853686831561</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>1450.665982591515</v>
+        <v>938.8878006697446</v>
       </c>
       <c r="V12" t="n">
-        <v>1215.513874359772</v>
+        <v>938.8878006697446</v>
       </c>
       <c r="W12" t="n">
-        <v>961.2765176315706</v>
+        <v>684.650443941543</v>
       </c>
       <c r="X12" t="n">
-        <v>753.4250174260378</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="Y12" t="n">
-        <v>545.664718661084</v>
+        <v>476.7989437360102</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.0778242139114</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C13" t="n">
-        <v>189.0778242139114</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D13" t="n">
-        <v>189.0778242139114</v>
+        <v>48.87607759080012</v>
       </c>
       <c r="E13" t="n">
-        <v>189.0778242139114</v>
+        <v>48.87607759080012</v>
       </c>
       <c r="F13" t="n">
-        <v>42.18787671600106</v>
+        <v>48.87607759080012</v>
       </c>
       <c r="G13" t="n">
-        <v>42.18787671600106</v>
+        <v>48.87607759080012</v>
       </c>
       <c r="H13" t="n">
-        <v>42.18787671600106</v>
+        <v>48.87607759080012</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600106</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600106</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701813</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>166.2559978081033</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053809</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503607</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871624</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842145</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842145</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842145</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842145</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842145</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>527.3837778842145</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>527.3837778842145</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>237.9666078472539</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>189.0778242139114</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.0778242139114</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>846.4535728877896</v>
+        <v>1581.017990517401</v>
       </c>
       <c r="C14" t="n">
-        <v>846.4535728877896</v>
+        <v>1212.05547357699</v>
       </c>
       <c r="D14" t="n">
-        <v>846.4535728877896</v>
+        <v>853.7897749702393</v>
       </c>
       <c r="E14" t="n">
-        <v>460.6653202895454</v>
+        <v>468.001522371995</v>
       </c>
       <c r="F14" t="n">
-        <v>460.6653202895454</v>
+        <v>57.01561758238745</v>
       </c>
       <c r="G14" t="n">
-        <v>42.18787671600106</v>
+        <v>57.01561758238745</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600106</v>
+        <v>38.24161755721944</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600106</v>
+        <v>38.24161755721944</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856228</v>
+        <v>96.93923871827246</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953289</v>
+        <v>305.6565612977718</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803417</v>
+        <v>616.8654835480081</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.883192613822</v>
+        <v>979.7519185640742</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300945</v>
+        <v>1333.878237938975</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170709</v>
+        <v>1623.082041653885</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755288</v>
+        <v>1832.236414250554</v>
       </c>
       <c r="Q14" t="n">
-        <v>2109.393835800053</v>
+        <v>1912.080877860972</v>
       </c>
       <c r="R14" t="n">
-        <v>2022.100492129414</v>
+        <v>1912.080877860972</v>
       </c>
       <c r="S14" t="n">
-        <v>2022.100492129414</v>
+        <v>1912.080877860972</v>
       </c>
       <c r="T14" t="n">
-        <v>1817.919176495129</v>
+        <v>1912.080877860972</v>
       </c>
       <c r="U14" t="n">
-        <v>1564.116300295482</v>
+        <v>1912.080877860972</v>
       </c>
       <c r="V14" t="n">
-        <v>1233.053412951911</v>
+        <v>1581.017990517401</v>
       </c>
       <c r="W14" t="n">
-        <v>1233.053412951911</v>
+        <v>1581.017990517401</v>
       </c>
       <c r="X14" t="n">
-        <v>1233.053412951911</v>
+        <v>1581.017990517401</v>
       </c>
       <c r="Y14" t="n">
-        <v>1233.053412951911</v>
+        <v>1581.017990517401</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>612.9409869359035</v>
+        <v>667.4010694781682</v>
       </c>
       <c r="C15" t="n">
-        <v>604.9912562889194</v>
+        <v>492.9480401970412</v>
       </c>
       <c r="D15" t="n">
-        <v>456.0568466276681</v>
+        <v>344.01363053579</v>
       </c>
       <c r="E15" t="n">
-        <v>296.8193916222126</v>
+        <v>184.7761755303345</v>
       </c>
       <c r="F15" t="n">
-        <v>150.2848336490976</v>
+        <v>38.24161755721944</v>
       </c>
       <c r="G15" t="n">
-        <v>150.2848336490976</v>
+        <v>38.24161755721944</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600106</v>
+        <v>38.24161755721944</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600106</v>
+        <v>38.24161755721944</v>
       </c>
       <c r="J15" t="n">
-        <v>91.99734226147177</v>
+        <v>38.24161755721944</v>
       </c>
       <c r="K15" t="n">
-        <v>162.8271385329684</v>
+        <v>235.39351851375</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9597813494099</v>
+        <v>561.892975692358</v>
       </c>
       <c r="M15" t="n">
-        <v>964.8594711344656</v>
+        <v>994.8816638756031</v>
       </c>
       <c r="N15" t="n">
-        <v>1448.532482523724</v>
+        <v>1455.037287624463</v>
       </c>
       <c r="O15" t="n">
-        <v>1824.583116501094</v>
+        <v>1809.574106405479</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.393835800053</v>
+        <v>1912.080877860972</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.393835800053</v>
+        <v>1912.080877860972</v>
       </c>
       <c r="R15" t="n">
-        <v>2109.393835800053</v>
+        <v>1839.076492680904</v>
       </c>
       <c r="S15" t="n">
-        <v>1946.116217237206</v>
+        <v>1800.596107283682</v>
       </c>
       <c r="T15" t="n">
-        <v>1746.129955106381</v>
+        <v>1800.596107283682</v>
       </c>
       <c r="U15" t="n">
-        <v>1517.942250866334</v>
+        <v>1572.402333408599</v>
       </c>
       <c r="V15" t="n">
-        <v>1282.790142634592</v>
+        <v>1337.250225176856</v>
       </c>
       <c r="W15" t="n">
-        <v>1028.55278590639</v>
+        <v>1083.012868448655</v>
       </c>
       <c r="X15" t="n">
-        <v>820.7012857008574</v>
+        <v>875.1613682431221</v>
       </c>
       <c r="Y15" t="n">
-        <v>612.9409869359035</v>
+        <v>667.4010694781682</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.8746550350547</v>
+        <v>459.9924103041396</v>
       </c>
       <c r="C16" t="n">
-        <v>348.8746550350547</v>
+        <v>291.0562273762328</v>
       </c>
       <c r="D16" t="n">
-        <v>348.8746550350547</v>
+        <v>140.939587963897</v>
       </c>
       <c r="E16" t="n">
-        <v>348.8746550350547</v>
+        <v>140.939587963897</v>
       </c>
       <c r="F16" t="n">
-        <v>201.9847075371443</v>
+        <v>140.939587963897</v>
       </c>
       <c r="G16" t="n">
-        <v>201.9847075371443</v>
+        <v>140.939587963897</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600106</v>
+        <v>38.24161755721944</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600106</v>
+        <v>38.24161755721944</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600106</v>
+        <v>38.24161755721944</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701813</v>
+        <v>59.50088325727424</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081033</v>
+        <v>142.2318586473017</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053809</v>
+        <v>239.8491955519031</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503607</v>
+        <v>340.5800267922423</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871624</v>
+        <v>417.6049576856855</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842145</v>
+        <v>459.9924103041396</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842145</v>
+        <v>459.9924103041396</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842145</v>
+        <v>459.9924103041396</v>
       </c>
       <c r="S16" t="n">
-        <v>348.8746550350547</v>
+        <v>459.9924103041396</v>
       </c>
       <c r="T16" t="n">
-        <v>348.8746550350547</v>
+        <v>459.9924103041396</v>
       </c>
       <c r="U16" t="n">
-        <v>348.8746550350547</v>
+        <v>459.9924103041396</v>
       </c>
       <c r="V16" t="n">
-        <v>348.8746550350547</v>
+        <v>459.9924103041396</v>
       </c>
       <c r="W16" t="n">
-        <v>348.8746550350547</v>
+        <v>459.9924103041396</v>
       </c>
       <c r="X16" t="n">
-        <v>348.8746550350547</v>
+        <v>459.9924103041396</v>
       </c>
       <c r="Y16" t="n">
-        <v>348.8746550350547</v>
+        <v>459.9924103041396</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1155.204344861407</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>786.2418279209958</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>427.9761293142453</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>42.18787671600106</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>42.18787671600106</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856228</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953288</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803416</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.883192613822</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300945</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170709</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755288</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.393835800053</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2109.393835800053</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2109.393835800053</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2109.393835800053</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U17" t="n">
-        <v>2109.393835800053</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V17" t="n">
-        <v>2109.393835800053</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W17" t="n">
-        <v>1931.943516901341</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X17" t="n">
-        <v>1931.943516901341</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y17" t="n">
-        <v>1541.804184925529</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>809.5322608961482</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>635.0792316150212</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>486.1448219537699</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>326.9073669483144</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>180.3728089751994</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>42.18787671600106</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600106</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>91.99734226147177</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>303.7504955284379</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L18" t="n">
-        <v>649.8831383448794</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M18" t="n">
-        <v>1105.782828129935</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1310.841828599077</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>1686.892462576447</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>1971.703181875406</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.393835800053</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.393835800053</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>1946.116217237206</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>1746.129955106381</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
-        <v>1517.942250866334</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1517.942250866334</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1393.359396886703</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1185.50789668117</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>977.7475979162161</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3837778842145</v>
+        <v>63.25696827225971</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3837778842145</v>
+        <v>63.25696827225971</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3837778842145</v>
+        <v>63.25696827225971</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3837778842145</v>
+        <v>63.25696827225971</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4938303863041</v>
+        <v>63.25696827225971</v>
       </c>
       <c r="G19" t="n">
-        <v>345.2423504458086</v>
+        <v>63.25696827225971</v>
       </c>
       <c r="H19" t="n">
-        <v>185.4455196246654</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701813</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>166.2559978081033</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053809</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503607</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871624</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842145</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842145</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842145</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842145</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842145</v>
+        <v>352.6741383092203</v>
       </c>
       <c r="U19" t="n">
-        <v>527.3837778842145</v>
+        <v>352.6741383092203</v>
       </c>
       <c r="V19" t="n">
-        <v>527.3837778842145</v>
+        <v>352.6741383092203</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3837778842145</v>
+        <v>63.25696827225971</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3837778842145</v>
+        <v>63.25696827225971</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3837778842145</v>
+        <v>63.25696827225971</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>460.6653202895454</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C20" t="n">
-        <v>460.6653202895454</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="D20" t="n">
-        <v>460.6653202895454</v>
+        <v>972.6467249281038</v>
       </c>
       <c r="E20" t="n">
-        <v>460.6653202895454</v>
+        <v>972.6467249281038</v>
       </c>
       <c r="F20" t="n">
-        <v>460.6653202895454</v>
+        <v>561.6608201384963</v>
       </c>
       <c r="G20" t="n">
-        <v>42.18787671600106</v>
+        <v>143.6970120366832</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600106</v>
+        <v>143.6970120366832</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856228</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953288</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803415</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.883192613822</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300945</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170709</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755288</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.393835800053</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2109.393835800053</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>1921.511879802149</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>1700.628773496709</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>1446.825897297062</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>1237.404492329479</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>1237.404492329479</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X20" t="n">
-        <v>1237.404492329479</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y20" t="n">
-        <v>847.2651603536672</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>501.3603962294414</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>326.9073669483144</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>326.9073669483144</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>326.9073669483144</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>180.3728089751994</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600106</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600106</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600106</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>162.8271385329684</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9597813494099</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>964.8594711344656</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1448.532482523724</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>1824.583116501094</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2109.393835800053</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.393835800053</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2109.393835800053</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>1946.116217237206</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>1746.129955106381</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
-        <v>1574.57699717994</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1339.424888948198</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1085.187532219996</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>877.3360320144634</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>669.5757332495095</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701813</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>166.2559978081033</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053809</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503607</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871624</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842145</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842145</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842145</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>527.3837778842145</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>527.3837778842145</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>527.3837778842145</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V22" t="n">
-        <v>527.3837778842145</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>270.1774276140184</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.18787671600106</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>709.2075429298493</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C23" t="n">
-        <v>340.2450259894376</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D23" t="n">
-        <v>340.2450259894376</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E23" t="n">
-        <v>340.2450259894376</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>340.2450259894376</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036444</v>
@@ -5992,7 +5992,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224075</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2465.942913862885</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V23" t="n">
-        <v>2212.181128500977</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>1859.412473230863</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X23" t="n">
-        <v>1485.946714969783</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="Y23" t="n">
-        <v>1095.807382993971</v>
+        <v>1485.892406545184</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>125.4609311463251</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036444</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1387.385938321512</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C26" t="n">
-        <v>1018.423421381101</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D26" t="n">
-        <v>660.1577227743503</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E26" t="n">
-        <v>471.9067899221776</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2147.451536646714</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2147.451536646714</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X26" t="n">
-        <v>1773.985778385634</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y26" t="n">
-        <v>1773.985778385634</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
@@ -6317,13 +6317,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>456.3840257941342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="T28" t="n">
-        <v>456.3840257941342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="U28" t="n">
-        <v>456.3840257941342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="V28" t="n">
-        <v>456.3840257941342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="W28" t="n">
-        <v>456.3840257941342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="X28" t="n">
-        <v>456.3840257941342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.5914466506042</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1036.358670716696</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="C29" t="n">
-        <v>1036.358670716696</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="D29" t="n">
-        <v>1036.358670716696</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M29" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N29" t="n">
         <v>1836.345445977174</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>1893.689751284806</v>
+        <v>2098.421336814531</v>
       </c>
       <c r="W29" t="n">
-        <v>1540.921096014692</v>
+        <v>2098.421336814531</v>
       </c>
       <c r="X29" t="n">
-        <v>1540.921096014692</v>
+        <v>1724.955578553451</v>
       </c>
       <c r="Y29" t="n">
-        <v>1150.78176403888</v>
+        <v>1724.955578553451</v>
       </c>
     </row>
     <row r="30">
@@ -6524,22 +6524,22 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.7118141694736</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C31" t="n">
-        <v>438.7118141694736</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D31" t="n">
-        <v>288.5951747571379</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7118141694736</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y31" t="n">
-        <v>438.7118141694736</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D32" t="n">
-        <v>819.715945170047</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E32" t="n">
-        <v>433.9276925718028</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6730,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6806,25 +6806,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U33" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>438.7118141694736</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C34" t="n">
-        <v>438.7118141694736</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D34" t="n">
-        <v>288.5951747571379</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>288.5951747571379</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694736</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X34" t="n">
-        <v>438.7118141694736</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y34" t="n">
-        <v>438.7118141694736</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1125.191652989356</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C35" t="n">
-        <v>1125.191652989356</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>766.9259543826058</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>381.1377017843616</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="U35" t="n">
-        <v>2569.088793928243</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="V35" t="n">
-        <v>2238.025906584672</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="W35" t="n">
-        <v>1885.257251314558</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X35" t="n">
-        <v>1511.791493053478</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y35" t="n">
-        <v>1511.791493053478</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>438.9553738610022</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X37" t="n">
-        <v>438.9553738610022</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1485.892406545184</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C38" t="n">
-        <v>1485.892406545184</v>
+        <v>825.721251757727</v>
       </c>
       <c r="D38" t="n">
-        <v>1485.892406545184</v>
+        <v>467.4555531509765</v>
       </c>
       <c r="E38" t="n">
-        <v>1100.10415394694</v>
+        <v>467.4555531509765</v>
       </c>
       <c r="F38" t="n">
-        <v>689.1182491573327</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
         <v>381.1377017843616</v>
@@ -7204,22 +7204,22 @@
         <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.723949158869</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V38" t="n">
-        <v>1838.661061815299</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W38" t="n">
-        <v>1485.892406545184</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X38" t="n">
-        <v>1485.892406545184</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y38" t="n">
-        <v>1485.892406545184</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517452</v>
@@ -7277,25 +7277,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064342</v>
+        <v>415.4256366790473</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1289842064342</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D40" t="n">
-        <v>578.0123447940985</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E40" t="n">
-        <v>517.0200655508536</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F40" t="n">
-        <v>517.0200655508536</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G40" t="n">
-        <v>348.0202652891861</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J40" t="n">
         <v>53.94298182036444</v>
@@ -7368,16 +7368,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>704.842806716008</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>415.4256366790473</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>415.4256366790473</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>415.4256366790473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1667.156396867424</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C41" t="n">
-        <v>1626.94664591678</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.680947310029</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117851</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036444</v>
@@ -7444,19 +7444,19 @@
         <v>2642.120401548715</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843236</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W41" t="n">
-        <v>2057.295728843236</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="X41" t="n">
-        <v>2057.295728843236</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y41" t="n">
-        <v>1667.156396867424</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.883908862959</v>
+        <v>677.697741559748</v>
       </c>
       <c r="C43" t="n">
-        <v>104.883908862959</v>
+        <v>677.697741559748</v>
       </c>
       <c r="D43" t="n">
-        <v>104.883908862959</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036444</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>286.5323736931987</v>
+        <v>677.697741559748</v>
       </c>
       <c r="U43" t="n">
-        <v>286.5323736931987</v>
+        <v>677.697741559748</v>
       </c>
       <c r="V43" t="n">
-        <v>286.5323736931987</v>
+        <v>677.697741559748</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5323736931987</v>
+        <v>677.697741559748</v>
       </c>
       <c r="X43" t="n">
-        <v>286.5323736931987</v>
+        <v>677.697741559748</v>
       </c>
       <c r="Y43" t="n">
-        <v>286.5323736931987</v>
+        <v>677.697741559748</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1268.680947310029</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.680947310029</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.680947310029</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036444</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.723949158869</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2045.420119349963</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W44" t="n">
-        <v>2045.420119349963</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.420119349963</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="Y44" t="n">
-        <v>1655.280787374151</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>286.5323736931987</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C46" t="n">
-        <v>286.5323736931987</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D46" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>286.5323736931987</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="U46" t="n">
-        <v>286.5323736931987</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="V46" t="n">
-        <v>286.5323736931987</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5323736931987</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="X46" t="n">
-        <v>286.5323736931987</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="Y46" t="n">
-        <v>286.5323736931987</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N3" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>122.1184117646296</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>272.4433368266701</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.99581912509457</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>84.40768042974361</v>
       </c>
       <c r="K15" t="n">
-        <v>122.1184117646296</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>151.7585116127256</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.99581912509457</v>
+        <v>82.65476256012164</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>197.91408048485</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033742</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>172.431003224701</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.99581912509457</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093287</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22564,7 +22564,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>267.3928735857801</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22646,7 +22646,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>59.59762388653245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22682,7 +22682,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>320.892250521429</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>86.62062847585095</v>
+        <v>20.08235810849364</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22995,10 +22995,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>329.7375659437481</v>
+        <v>268.4601236753789</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>86.87337592461267</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>187.1774827049713</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>138.6917128032271</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393318</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379247</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2648474376504</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>150.489582598801</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>69.55526088000816</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245149</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>61.85555464391325</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23421,28 +23421,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.537897457236</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>127.0355682523654</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022411</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385091</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>156.9211815276446</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>216.1206161765721</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>226.0096940321479</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2943157982424</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>177.3097595920281</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>312.2924241703384</v>
       </c>
       <c r="I14" t="n">
-        <v>171.5352284535379</v>
+        <v>178.1163791463313</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>97.14353343492371</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379247</v>
+        <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
-        <v>16.53477276444423</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>164.8382656478015</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8030829366063</v>
+        <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245149</v>
+        <v>73.93425515493645</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207131</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>125.2457845230607</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.537897457236</v>
+        <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.20867471275703</v>
       </c>
       <c r="I16" t="n">
-        <v>141.8250664795777</v>
+        <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022411</v>
+        <v>66.7399953978161</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385091</v>
+        <v>54.63455058802089</v>
       </c>
       <c r="R16" t="n">
-        <v>156.9211815276446</v>
+        <v>160.3641786191053</v>
       </c>
       <c r="S16" t="n">
-        <v>39.39658455590387</v>
+        <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
-        <v>226.0096940321479</v>
+        <v>226.33686925111</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>286.2984925031653</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>171.5352284535379</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393318</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379247</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>173.5651530076878</v>
+        <v>149.3717225072769</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245149</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207131</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23870,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>128.3579577210843</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6389323161454</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.9500422544188</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022411</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385091</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R19" t="n">
-        <v>156.9211815276446</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>216.1206161765721</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2943157982424</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>171.5352284535379</v>
+        <v>63.0748263307057</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393318</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>120.4250675522274</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245149</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207131</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>56.06839885046992</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.537897457236</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1988625129318</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>141.8250664795777</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022411</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385091</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>156.9211815276446</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0096940321479</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>31.8887115690969</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>109.6868997127723</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3451462934126</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>64.16285195963718</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>195.5619465486108</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>306.6230722805265</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24648,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>89.78322210199975</v>
+        <v>5.984738727581259</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>269.4549792745179</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>180.3542175499221</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>81.43809389821438</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24888,7 +24888,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24897,13 +24897,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>171.1641683188874</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24970,22 +24970,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>89.47286298685952</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>29.27795394731294</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>80.42517927457645</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25128,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>110.7607260682211</v>
       </c>
       <c r="U35" t="n">
-        <v>124.4444733892096</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.52472273120641</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>321.4213728887627</v>
       </c>
       <c r="G38" t="n">
-        <v>108.8834281215536</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25551,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>86.05160619575676</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>229.0843276083061</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>325.4652383298697</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25684,7 +25684,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>30.18800147925424</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>96.00244487440058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923383</v>
@@ -25836,10 +25836,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>175.1081752378649</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>204.6914669593174</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>304.5927444827994</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>63.77302308703773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,10 +26073,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>123.3173988889582</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482223.2200112951</v>
+        <v>482223.2200112952</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482223.2200112952</v>
+        <v>482223.2200112951</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696471.7429030007</v>
+        <v>511028.7006399871</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696471.7429030007</v>
+        <v>660056.8751344112</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>696471.7429030009</v>
+        <v>804944.2432527808</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>696471.7429030004</v>
+        <v>804944.2432527808</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>804944.2432527808</v>
+        <v>804944.2432527805</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>804944.2432527809</v>
+        <v>804944.2432527808</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>804944.2432527808</v>
+        <v>804944.2432527805</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>804944.2432527805</v>
+        <v>804944.2432527809</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>804944.2432527808</v>
+        <v>804944.2432527805</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>804944.2432527805</v>
+        <v>804944.2432527808</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>804944.2432527809</v>
+        <v>804944.2432527808</v>
       </c>
     </row>
   </sheetData>
@@ -26322,34 +26322,34 @@
         <v>149544.6052781992</v>
       </c>
       <c r="E2" t="n">
-        <v>223045.8084776441</v>
+        <v>159463.6497950859</v>
       </c>
       <c r="F2" t="n">
-        <v>223045.8084776441</v>
+        <v>210560.3856618981</v>
       </c>
       <c r="G2" t="n">
-        <v>223045.8084776441</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="H2" t="n">
-        <v>223045.8084776441</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="I2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
         <v>260237.3490141815</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141816</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134261</v>
+        <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>195194.8921689331</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>185152.0893328024</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116916</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871097</v>
+        <v>8757.582995213677</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>49441.87186138673</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47231.86264112644</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>50385.00392753457</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="E4" t="n">
-        <v>52516.94845541665</v>
+        <v>50562.47198319522</v>
       </c>
       <c r="F4" t="n">
-        <v>52516.94845541665</v>
+        <v>52133.02929617411</v>
       </c>
       <c r="G4" t="n">
-        <v>52516.94845541666</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="H4" t="n">
-        <v>52516.94845541666</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="I4" t="n">
         <v>53660.56571087037</v>
@@ -26444,7 +26444,7 @@
         <v>53660.56571087037</v>
       </c>
       <c r="K4" t="n">
-        <v>53660.56571087037</v>
+        <v>53660.56571087036</v>
       </c>
       <c r="L4" t="n">
         <v>53660.56571087037</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730642</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730642</v>
+        <v>33615.2806022158</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730642</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730642</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42109.10956468521</v>
+        <v>-31112.90000664886</v>
       </c>
       <c r="C6" t="n">
-        <v>38660.32196686247</v>
+        <v>49656.53152489888</v>
       </c>
       <c r="D6" t="n">
-        <v>38660.32196686245</v>
+        <v>49656.53152489888</v>
       </c>
       <c r="E6" t="n">
-        <v>-162497.5950307986</v>
+        <v>51551.8219067424</v>
       </c>
       <c r="F6" t="n">
-        <v>124854.1149826274</v>
+        <v>-71265.64090974176</v>
       </c>
       <c r="G6" t="n">
-        <v>124854.1149826275</v>
+        <v>-28413.62546748244</v>
       </c>
       <c r="H6" t="n">
-        <v>124854.1149826275</v>
+        <v>156738.4638653198</v>
       </c>
       <c r="I6" t="n">
-        <v>16988.18998239099</v>
+        <v>156738.4638653199</v>
       </c>
       <c r="J6" t="n">
-        <v>88216.94889497639</v>
+        <v>93678.52126621356</v>
       </c>
       <c r="K6" t="n">
-        <v>151276.8914940825</v>
+        <v>156738.4638653199</v>
       </c>
       <c r="L6" t="n">
-        <v>151276.8914940826</v>
+        <v>156738.4638653199</v>
       </c>
       <c r="M6" t="n">
-        <v>79921.2709753715</v>
+        <v>147980.880870106</v>
       </c>
       <c r="N6" t="n">
-        <v>151276.8914940826</v>
+        <v>107296.5920039332</v>
       </c>
       <c r="O6" t="n">
-        <v>151276.8914940826</v>
+        <v>109506.6012241934</v>
       </c>
       <c r="P6" t="n">
-        <v>151276.8914940825</v>
+        <v>156738.4638653199</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598906</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598906</v>
+        <v>208.7913421435331</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598906</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598906</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,28 +26798,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500133</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500133</v>
+        <v>478.020219465243</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500133</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500133</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598906</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>173.7700814244077</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>168.9523220735537</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723543</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>201.8637057628875</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.2670532893127</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045422</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723543</v>
+        <v>35.14222482469654</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>201.8637057628874</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.2670532893129</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723543</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>201.8637057628875</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.2670532893127</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.010068377326192</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929187</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686807</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008901</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523068</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>159.3963654549032</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601779</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>180.229025737256</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102186</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>145.2490952449782</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819839</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721649</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832063</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>4.42157432174541</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609538</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.540434226604293</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730935</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I12" t="n">
-        <v>18.6070556089636</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632928</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881691</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142348</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286403</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026665</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973819</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>103.1992340258671</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092695</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057181</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S12" t="n">
-        <v>10.03832872661921</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304145</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922981</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227534</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507756</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I13" t="n">
-        <v>13.62540844768063</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644867</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933443</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269918</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985397</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620558</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464884</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970463</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784347</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952489</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400163</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133582</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851385</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010068377326192</v>
+        <v>0.8393621794714892</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929187</v>
+        <v>8.596117920512391</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686807</v>
+        <v>32.35951042407461</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008901</v>
+        <v>71.23981577991837</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523068</v>
+        <v>106.7700168369465</v>
       </c>
       <c r="L14" t="n">
-        <v>159.3963654549032</v>
+        <v>132.4576471369471</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601779</v>
+        <v>147.3846542961232</v>
       </c>
       <c r="N14" t="n">
-        <v>180.229025737256</v>
+        <v>149.7694920885466</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102186</v>
+        <v>141.423084416427</v>
       </c>
       <c r="P14" t="n">
-        <v>145.2490952449782</v>
+        <v>120.7013306107246</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819839</v>
+        <v>90.64167255840184</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721649</v>
+        <v>52.72558450622598</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832063</v>
+        <v>19.12696566470658</v>
       </c>
       <c r="T14" t="n">
-        <v>4.42157432174541</v>
+        <v>3.674307940636446</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609538</v>
+        <v>0.06714897435771912</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.540434226604293</v>
+        <v>0.4490983585728825</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730935</v>
+        <v>4.337344673585471</v>
       </c>
       <c r="I15" t="n">
-        <v>18.6070556089636</v>
+        <v>15.46237769647863</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632928</v>
+        <v>42.42994623692309</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881691</v>
+        <v>72.51953626130621</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142348</v>
+        <v>97.51146596995855</v>
       </c>
       <c r="M15" t="n">
-        <v>136.9337073286403</v>
+        <v>113.7912814682255</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026665</v>
+        <v>116.8029980921639</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973819</v>
+        <v>106.8519239364174</v>
       </c>
       <c r="P15" t="n">
-        <v>103.1992340258671</v>
+        <v>85.75808919099192</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092695</v>
+        <v>57.32701152589988</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057181</v>
+        <v>27.883492824376</v>
       </c>
       <c r="S15" t="n">
-        <v>10.03832872661921</v>
+        <v>8.341805037527001</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304145</v>
+        <v>1.810181541791574</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922981</v>
+        <v>0.02954594464295281</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227534</v>
+        <v>0.3765089776358793</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507756</v>
+        <v>3.347507092071729</v>
       </c>
       <c r="I16" t="n">
-        <v>13.62540844768063</v>
+        <v>11.32265180017717</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644867</v>
+        <v>26.61918471885667</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933443</v>
+        <v>43.74349758351396</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269918</v>
+        <v>55.97661654779247</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985397</v>
+        <v>59.01949364886787</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620558</v>
+        <v>57.61614200495237</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464884</v>
+        <v>53.21783258438776</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970463</v>
+        <v>45.53704944061578</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784347</v>
+        <v>31.5274926636735</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952489</v>
+        <v>16.92921275806417</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400163</v>
+        <v>6.561524637527095</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133582</v>
+        <v>1.608720177171484</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851385</v>
+        <v>0.02053685332559344</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.010068377326192</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929187</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686807</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008901</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523068</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549032</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601779</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>180.229025737256</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102186</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
-        <v>145.2490952449782</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819839</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721649</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832063</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>4.42157432174541</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609538</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.540434226604293</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730935</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I18" t="n">
-        <v>18.6070556089636</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632928</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881691</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142348</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286403</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026665</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973819</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
-        <v>103.1992340258671</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092695</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057181</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S18" t="n">
-        <v>10.03832872661921</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304145</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922981</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227534</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507756</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I19" t="n">
-        <v>13.62540844768063</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644867</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933443</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269918</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985397</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620558</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464884</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970463</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784347</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952489</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400163</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133582</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851385</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.010068377326192</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929187</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686807</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008901</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523068</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>159.3963654549032</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601779</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>180.229025737256</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102186</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>145.2490952449782</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819839</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721649</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832063</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>4.42157432174541</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609538</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.540434226604293</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730935</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>18.6070556089636</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632928</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881691</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142348</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286403</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026665</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973819</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>103.1992340258671</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092695</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057181</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>10.03832872661921</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304145</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922981</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227534</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507756</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>13.62540844768063</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644867</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933443</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269918</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985397</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620558</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464884</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970463</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784347</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952489</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400163</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133582</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851385</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547649</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>232.540046878491</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353665</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257377</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>388.1628865526492</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>320.8871281512772</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>235.8148076611913</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743914</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007142</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>71.54524875908749</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378197</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566219</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628868</v>
+        <v>160.6933770016709</v>
       </c>
       <c r="O12" t="n">
-        <v>379.849125229667</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6875952514741</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345158</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301532</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416946</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4660600454342</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868851</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459812</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547649</v>
+        <v>59.29052642530586</v>
       </c>
       <c r="K14" t="n">
-        <v>232.540046878491</v>
+        <v>210.8255783631307</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353665</v>
+        <v>314.3524467174103</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257377</v>
+        <v>366.551954561683</v>
       </c>
       <c r="N14" t="n">
-        <v>388.1628865526492</v>
+        <v>357.7033529039398</v>
       </c>
       <c r="O14" t="n">
-        <v>320.8871281512772</v>
+        <v>292.1250542574856</v>
       </c>
       <c r="P14" t="n">
-        <v>235.8148076611913</v>
+        <v>211.2670430269377</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743914</v>
+        <v>80.65097334385703</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>50.31259146007142</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>71.54524875908749</v>
+        <v>199.1433342995258</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378197</v>
+        <v>329.7974314935435</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566219</v>
+        <v>437.3623112962071</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5585973628868</v>
+        <v>464.8036603523841</v>
       </c>
       <c r="O15" t="n">
-        <v>379.849125229667</v>
+        <v>358.1179987687024</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6875952514741</v>
+        <v>103.5421933893873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345158</v>
+        <v>21.47400575763111</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301532</v>
+        <v>83.56664180810861</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6065244416946</v>
+        <v>98.60337061070845</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4660600454342</v>
+        <v>101.748314384181</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868851</v>
+        <v>77.80296049842744</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459812</v>
+        <v>42.81560870550927</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547649</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>232.540046878491</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353665</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257377</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526492</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>320.8871281512772</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611913</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743914</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.31259146007142</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K18" t="n">
-        <v>213.8920740070365</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378197</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566219</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
-        <v>207.1303035041833</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>379.849125229667</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6875952514741</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.0814686107545</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345158</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301532</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416946</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>113.4660600454342</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868851</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459812</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547649</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>232.540046878491</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353665</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257377</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>388.1628865526492</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>320.8871281512772</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611913</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743914</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>121.8578402191589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378197</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566219</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628868</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>379.849125229667</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514741</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345158</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301532</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416946</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
-        <v>113.4660600454342</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868851</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459812</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37630,10 +37630,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856226</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
